--- a/0_1_Output_Data/1_GDP_Evaluation_series/revision_yoy_GDP.xlsx
+++ b/0_1_Output_Data/1_GDP_Evaluation_series/revision_yoy_GDP.xlsx
@@ -14,21 +14,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>revision</t>
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>1987Q4</t>
+  </si>
+  <si>
+    <t>1988Q4</t>
+  </si>
+  <si>
+    <t>1989Q4</t>
+  </si>
+  <si>
+    <t>1990Q4</t>
+  </si>
+  <si>
+    <t>1991Q4</t>
+  </si>
+  <si>
+    <t>1992Q4</t>
+  </si>
+  <si>
+    <t>1993Q4</t>
+  </si>
+  <si>
+    <t>1994Q4</t>
+  </si>
+  <si>
+    <t>1995Q4</t>
+  </si>
+  <si>
+    <t>1996Q4</t>
+  </si>
+  <si>
+    <t>1997Q4</t>
+  </si>
+  <si>
+    <t>1998Q4</t>
+  </si>
+  <si>
+    <t>1999Q4</t>
+  </si>
+  <si>
+    <t>2000Q4</t>
+  </si>
+  <si>
+    <t>2001Q4</t>
+  </si>
+  <si>
+    <t>2002Q4</t>
+  </si>
+  <si>
+    <t>2003Q4</t>
+  </si>
+  <si>
+    <t>2004Q4</t>
+  </si>
+  <si>
+    <t>2005Q4</t>
+  </si>
+  <si>
+    <t>2006Q4</t>
+  </si>
+  <si>
+    <t>2007Q4</t>
+  </si>
+  <si>
+    <t>2008Q4</t>
+  </si>
+  <si>
+    <t>2009Q4</t>
+  </si>
+  <si>
+    <t>2010Q4</t>
+  </si>
+  <si>
+    <t>2011Q4</t>
+  </si>
+  <si>
+    <t>2012Q4</t>
+  </si>
+  <si>
+    <t>2013Q4</t>
+  </si>
+  <si>
+    <t>2014Q4</t>
+  </si>
+  <si>
+    <t>2015Q4</t>
+  </si>
+  <si>
+    <t>2016Q4</t>
+  </si>
+  <si>
+    <t>2017Q4</t>
+  </si>
+  <si>
+    <t>2018Q4</t>
+  </si>
+  <si>
+    <t>2019Q4</t>
+  </si>
+  <si>
+    <t>2020Q4</t>
+  </si>
+  <si>
+    <t>2021Q4</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -81,12 +192,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -398,304 +506,304 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2">
-        <v>32142</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2">
-        <v>32508</v>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
         <v>-4.440892098500626E-14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2">
-        <v>32873</v>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2">
-        <v>33238</v>
+      <c r="A5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4.440892098500626E-14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2">
-        <v>33603</v>
+      <c r="A6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0.8761527144223624</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2">
-        <v>33969</v>
+      <c r="A7" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0.2498186593231866</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2">
-        <v>34334</v>
+      <c r="A8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
         <v>-0.2073814777540428</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2">
-        <v>34699</v>
+      <c r="A9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0.3094428711141628</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2">
-        <v>35064</v>
+      <c r="A10" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0.5223161956339206</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2">
-        <v>35430</v>
+      <c r="A11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0.3117781822009169</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2">
-        <v>35795</v>
+      <c r="A12" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0.3783498544355668</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2">
-        <v>36160</v>
+      <c r="A13" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0.6542703491021484</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2">
-        <v>36525</v>
+      <c r="A14" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
         <v>-0.6157632300240357</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2">
-        <v>36891</v>
+      <c r="A15" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
         <v>0.01566947406670405</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2">
-        <v>37256</v>
+      <c r="A16" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B16">
         <v>-1.024794128387363</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2">
-        <v>37621</v>
+      <c r="A17" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
         <v>0.4283030634637974</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2">
-        <v>37986</v>
+      <c r="A18" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0.4210175484930634</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2">
-        <v>38352</v>
+      <c r="A19" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B19">
         <v>0.3309484344824476</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2">
-        <v>38717</v>
+      <c r="A20" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
         <v>0.03534272045342401</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="2">
-        <v>39082</v>
+      <c r="A21" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B21">
         <v>-1.144790596790379</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="2">
-        <v>39447</v>
+      <c r="A22" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B22">
         <v>-0.3737413844400406</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="2">
-        <v>39813</v>
+      <c r="A23" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B23">
         <v>0.3599799282585359</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="2">
-        <v>40178</v>
+      <c r="A24" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B24">
         <v>0.5766501347738604</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="2">
-        <v>40543</v>
+      <c r="A25" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B25">
         <v>-0.5004758034602208</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2">
-        <v>40908</v>
+      <c r="A26" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B26">
         <v>-0.7750463390001627</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="2">
-        <v>41274</v>
+      <c r="A27" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B27">
         <v>0.2146387198177946</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="2">
-        <v>41639</v>
+      <c r="A28" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B28">
         <v>0.02351224639369764</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="2">
-        <v>42004</v>
+      <c r="A29" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B29">
         <v>-0.5673139978460418</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="2">
-        <v>42369</v>
+      <c r="A30" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B30">
         <v>0.03242225351332007</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="2">
-        <v>42735</v>
+      <c r="A31" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B31">
         <v>-0.3625064515619281</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="2">
-        <v>43100</v>
+      <c r="A32" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B32">
         <v>-0.5809412570459083</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="2">
-        <v>43465</v>
+      <c r="A33" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B33">
         <v>0.3008481533817164</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="2">
-        <v>43830</v>
+      <c r="A34" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B34">
         <v>-0.4092135626299287</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="2">
-        <v>44196</v>
+      <c r="A35" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B35">
         <v>-0.7785741838770672</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="2">
-        <v>44561</v>
+      <c r="A36" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B36">
         <v>-0.9959164522061803</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="2">
-        <v>44926</v>
+      <c r="A37" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B37">
         <v>-0.02772281113909703</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="2">
-        <v>45291</v>
+      <c r="A38" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B38">
         <v>0.565922940159902</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="2">
-        <v>45657</v>
+      <c r="A39" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B39">
         <v>0.266820966430148</v>

--- a/0_1_Output_Data/1_GDP_Evaluation_series/revision_yoy_GDP.xlsx
+++ b/0_1_Output_Data/1_GDP_Evaluation_series/revision_yoy_GDP.xlsx
@@ -14,132 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>revision</t>
   </si>
   <si>
     <t>date</t>
   </si>
-  <si>
-    <t>1987Q4</t>
-  </si>
-  <si>
-    <t>1988Q4</t>
-  </si>
-  <si>
-    <t>1989Q4</t>
-  </si>
-  <si>
-    <t>1990Q4</t>
-  </si>
-  <si>
-    <t>1991Q4</t>
-  </si>
-  <si>
-    <t>1992Q4</t>
-  </si>
-  <si>
-    <t>1993Q4</t>
-  </si>
-  <si>
-    <t>1994Q4</t>
-  </si>
-  <si>
-    <t>1995Q4</t>
-  </si>
-  <si>
-    <t>1996Q4</t>
-  </si>
-  <si>
-    <t>1997Q4</t>
-  </si>
-  <si>
-    <t>1998Q4</t>
-  </si>
-  <si>
-    <t>1999Q4</t>
-  </si>
-  <si>
-    <t>2000Q4</t>
-  </si>
-  <si>
-    <t>2001Q4</t>
-  </si>
-  <si>
-    <t>2002Q4</t>
-  </si>
-  <si>
-    <t>2003Q4</t>
-  </si>
-  <si>
-    <t>2004Q4</t>
-  </si>
-  <si>
-    <t>2005Q4</t>
-  </si>
-  <si>
-    <t>2006Q4</t>
-  </si>
-  <si>
-    <t>2007Q4</t>
-  </si>
-  <si>
-    <t>2008Q4</t>
-  </si>
-  <si>
-    <t>2009Q4</t>
-  </si>
-  <si>
-    <t>2010Q4</t>
-  </si>
-  <si>
-    <t>2011Q4</t>
-  </si>
-  <si>
-    <t>2012Q4</t>
-  </si>
-  <si>
-    <t>2013Q4</t>
-  </si>
-  <si>
-    <t>2014Q4</t>
-  </si>
-  <si>
-    <t>2015Q4</t>
-  </si>
-  <si>
-    <t>2016Q4</t>
-  </si>
-  <si>
-    <t>2017Q4</t>
-  </si>
-  <si>
-    <t>2018Q4</t>
-  </si>
-  <si>
-    <t>2019Q4</t>
-  </si>
-  <si>
-    <t>2020Q4</t>
-  </si>
-  <si>
-    <t>2021Q4</t>
-  </si>
-  <si>
-    <t>2022Q4</t>
-  </si>
-  <si>
-    <t>2023Q4</t>
-  </si>
-  <si>
-    <t>2024Q4</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,9 +81,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -506,304 +398,304 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="2">
+        <v>32142</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" s="2">
+        <v>32508</v>
       </c>
       <c r="B3">
         <v>-4.440892098500626E-14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+      <c r="A4" s="2">
+        <v>32873</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+      <c r="A5" s="2">
+        <v>33238</v>
       </c>
       <c r="B5">
         <v>4.440892098500626E-14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
+      <c r="A6" s="2">
+        <v>33603</v>
       </c>
       <c r="B6">
         <v>0.8761527144223624</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
+      <c r="A7" s="2">
+        <v>33969</v>
       </c>
       <c r="B7">
         <v>0.2498186593231866</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
+      <c r="A8" s="2">
+        <v>34334</v>
       </c>
       <c r="B8">
         <v>-0.2073814777540428</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
+      <c r="A9" s="2">
+        <v>34699</v>
       </c>
       <c r="B9">
         <v>0.3094428711141628</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
+      <c r="A10" s="2">
+        <v>35064</v>
       </c>
       <c r="B10">
         <v>0.5223161956339206</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
+      <c r="A11" s="2">
+        <v>35430</v>
       </c>
       <c r="B11">
         <v>0.3117781822009169</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
+      <c r="A12" s="2">
+        <v>35795</v>
       </c>
       <c r="B12">
         <v>0.3783498544355668</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
+      <c r="A13" s="2">
+        <v>36160</v>
       </c>
       <c r="B13">
         <v>0.6542703491021484</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
+      <c r="A14" s="2">
+        <v>36525</v>
       </c>
       <c r="B14">
         <v>-0.6157632300240357</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
+      <c r="A15" s="2">
+        <v>36891</v>
       </c>
       <c r="B15">
         <v>0.01566947406670405</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
+      <c r="A16" s="2">
+        <v>37256</v>
       </c>
       <c r="B16">
         <v>-1.024794128387363</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
+      <c r="A17" s="2">
+        <v>37621</v>
       </c>
       <c r="B17">
         <v>0.4283030634637974</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
+      <c r="A18" s="2">
+        <v>37986</v>
       </c>
       <c r="B18">
         <v>0.4210175484930634</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
+      <c r="A19" s="2">
+        <v>38352</v>
       </c>
       <c r="B19">
         <v>0.3309484344824476</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
+      <c r="A20" s="2">
+        <v>38717</v>
       </c>
       <c r="B20">
         <v>0.03534272045342401</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
+      <c r="A21" s="2">
+        <v>39082</v>
       </c>
       <c r="B21">
         <v>-1.144790596790379</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
+      <c r="A22" s="2">
+        <v>39447</v>
       </c>
       <c r="B22">
         <v>-0.3737413844400406</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
+      <c r="A23" s="2">
+        <v>39813</v>
       </c>
       <c r="B23">
         <v>0.3599799282585359</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
+      <c r="A24" s="2">
+        <v>40178</v>
       </c>
       <c r="B24">
         <v>0.5766501347738604</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
+      <c r="A25" s="2">
+        <v>40543</v>
       </c>
       <c r="B25">
         <v>-0.5004758034602208</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
+      <c r="A26" s="2">
+        <v>40908</v>
       </c>
       <c r="B26">
         <v>-0.7750463390001627</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
+      <c r="A27" s="2">
+        <v>41274</v>
       </c>
       <c r="B27">
         <v>0.2146387198177946</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
+      <c r="A28" s="2">
+        <v>41639</v>
       </c>
       <c r="B28">
         <v>0.02351224639369764</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
+      <c r="A29" s="2">
+        <v>42004</v>
       </c>
       <c r="B29">
         <v>-0.5673139978460418</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
+      <c r="A30" s="2">
+        <v>42369</v>
       </c>
       <c r="B30">
         <v>0.03242225351332007</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
+      <c r="A31" s="2">
+        <v>42735</v>
       </c>
       <c r="B31">
         <v>-0.3625064515619281</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
+      <c r="A32" s="2">
+        <v>43100</v>
       </c>
       <c r="B32">
         <v>-0.5809412570459083</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
+      <c r="A33" s="2">
+        <v>43465</v>
       </c>
       <c r="B33">
         <v>0.3008481533817164</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
+      <c r="A34" s="2">
+        <v>43830</v>
       </c>
       <c r="B34">
         <v>-0.4092135626299287</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
+      <c r="A35" s="2">
+        <v>44196</v>
       </c>
       <c r="B35">
         <v>-0.7785741838770672</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
+      <c r="A36" s="2">
+        <v>44561</v>
       </c>
       <c r="B36">
         <v>-0.9959164522061803</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
+      <c r="A37" s="2">
+        <v>44926</v>
       </c>
       <c r="B37">
         <v>-0.02772281113909703</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
+      <c r="A38" s="2">
+        <v>45291</v>
       </c>
       <c r="B38">
         <v>0.565922940159902</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
+      <c r="A39" s="2">
+        <v>45657</v>
       </c>
       <c r="B39">
         <v>0.266820966430148</v>
